--- a/16A-Red-BOM-2015-12-09.xlsx
+++ b/16A-Red-BOM-2015-12-09.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="339">
   <si>
     <t>Operating Systems</t>
   </si>
@@ -931,10 +931,6 @@
 (Lenovo Customized Image)</t>
   </si>
   <si>
-    <t>VMware ESXi 6.0 U1
-(Lenovo Customized Image)</t>
-  </si>
-  <si>
     <t>UX Package Type: Red</t>
   </si>
   <si>
@@ -1102,6 +1098,16 @@
   </si>
   <si>
     <t>Lancer G6 (FC)</t>
+  </si>
+  <si>
+    <t>Split Lancer G6 adapters into a separate section</t>
+  </si>
+  <si>
+    <t>VMware ESXi 6.0 U2
+(Lenovo Customized Image)</t>
+  </si>
+  <si>
+    <t>Updated VMware 6.0 from U1 to U2 per Manzar</t>
   </si>
 </sst>
 </file>
@@ -1840,6 +1846,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1866,37 +1903,6 @@
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="230">
@@ -2454,38 +2460,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="114"/>
+      <c r="A1" s="111" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="111"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
     </row>
     <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" s="114"/>
+      <c r="A2" s="111" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="111"/>
     </row>
     <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="113" t="s">
-        <v>285</v>
-      </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
+      <c r="D4" s="110" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="113" t="s">
+      <c r="H4" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -2519,7 +2525,7 @@
         <v>35</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N5" s="20"/>
     </row>
@@ -2528,27 +2534,27 @@
         <v>32</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="112"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="109"/>
       <c r="N6" s="22"/>
       <c r="O6" s="68"/>
       <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B7" s="77" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25" t="s">
@@ -2577,7 +2583,7 @@
         <v>41</v>
       </c>
       <c r="M7" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="68"/>
@@ -2585,7 +2591,7 @@
     </row>
     <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B8" s="77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="29" t="s">
@@ -2599,7 +2605,7 @@
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="84" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I8" s="39" t="s">
         <v>205</v>
@@ -2614,14 +2620,14 @@
         <v>208</v>
       </c>
       <c r="M8" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O8" s="68"/>
       <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="25" t="s">
@@ -2635,7 +2641,7 @@
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="95" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I9" s="39" t="s">
         <v>209</v>
@@ -2650,14 +2656,14 @@
         <v>211</v>
       </c>
       <c r="M9" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O9" s="68"/>
       <c r="P9" s="30"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="15" t="s">
@@ -2675,7 +2681,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="79" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="25" t="s">
@@ -2688,20 +2694,20 @@
         <v>5</v>
       </c>
       <c r="G11" s="37"/>
-      <c r="H11" s="118" t="s">
+      <c r="H11" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
       <c r="O11" s="68"/>
       <c r="P11" s="30"/>
     </row>
     <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B12" s="77" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="25" t="s">
@@ -2714,8 +2720,8 @@
         <v>6</v>
       </c>
       <c r="G12" s="28"/>
-      <c r="H12" s="119" t="s">
-        <v>314</v>
+      <c r="H12" s="105" t="s">
+        <v>313</v>
       </c>
       <c r="I12" s="91" t="s">
         <v>153</v>
@@ -2730,14 +2736,14 @@
         <v>150</v>
       </c>
       <c r="M12" s="82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O12" s="68"/>
       <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B13" s="77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="39" t="s">
@@ -2750,7 +2756,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="28"/>
-      <c r="H13" s="120"/>
+      <c r="H13" s="106"/>
       <c r="I13" s="82" t="s">
         <v>155</v>
       </c>
@@ -2764,18 +2770,18 @@
         <v>152</v>
       </c>
       <c r="M13" s="82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O13" s="68"/>
       <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B14" s="77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E14" s="31">
         <v>8869</v>
@@ -2784,7 +2790,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="100" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I14" s="38" t="s">
         <v>216</v>
@@ -2799,18 +2805,18 @@
         <v>213</v>
       </c>
       <c r="M14" s="82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O14" s="68"/>
       <c r="P14" s="30"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E15" s="35">
         <v>8871</v>
@@ -2819,7 +2825,7 @@
         <v>9</v>
       </c>
       <c r="H15" s="84" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I15" s="38" t="s">
         <v>218</v>
@@ -2834,21 +2840,21 @@
         <v>215</v>
       </c>
       <c r="M15" s="82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O15" s="68"/>
       <c r="P15" s="30"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="79" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F16" s="27">
         <v>10</v>
@@ -2858,59 +2864,59 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="78" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="50"/>
       <c r="E17" s="97"/>
       <c r="F17" s="98"/>
       <c r="G17" s="68"/>
-      <c r="H17" s="118" t="s">
-        <v>336</v>
-      </c>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
+      <c r="H17" s="104" t="s">
+        <v>335</v>
+      </c>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
       <c r="O17" s="68"/>
       <c r="P17" s="30"/>
     </row>
     <row r="18" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B18" s="77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="101" t="s">
         <v>204</v>
       </c>
-      <c r="E18" s="116"/>
-      <c r="F18" s="117"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
       <c r="G18" s="68"/>
-      <c r="H18" s="119" t="s">
-        <v>314</v>
+      <c r="H18" s="105" t="s">
+        <v>313</v>
       </c>
       <c r="I18" s="82" t="s">
+        <v>320</v>
+      </c>
+      <c r="J18" s="92" t="s">
+        <v>322</v>
+      </c>
+      <c r="K18" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="J18" s="92" t="s">
+      <c r="L18" s="91" t="s">
         <v>323</v>
       </c>
-      <c r="K18" s="91" t="s">
-        <v>322</v>
-      </c>
-      <c r="L18" s="91" t="s">
-        <v>324</v>
-      </c>
       <c r="M18" s="82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O18" s="68"/>
       <c r="P18" s="30"/>
     </row>
     <row r="19" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B19" s="78" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="83" t="s">
@@ -2923,27 +2929,27 @@
         <v>50</v>
       </c>
       <c r="G19" s="68"/>
-      <c r="H19" s="120"/>
+      <c r="H19" s="106"/>
       <c r="I19" s="82" t="s">
+        <v>324</v>
+      </c>
+      <c r="J19" s="83" t="s">
+        <v>326</v>
+      </c>
+      <c r="K19" s="82" t="s">
+        <v>327</v>
+      </c>
+      <c r="L19" s="82" t="s">
         <v>325</v>
       </c>
-      <c r="J19" s="83" t="s">
-        <v>327</v>
-      </c>
-      <c r="K19" s="82" t="s">
+      <c r="M19" s="82" t="s">
         <v>328</v>
-      </c>
-      <c r="L19" s="82" t="s">
-        <v>326</v>
-      </c>
-      <c r="M19" s="82" t="s">
-        <v>329</v>
       </c>
       <c r="O19" s="68"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="83" t="s">
@@ -2960,7 +2966,7 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="79" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="83" t="s">
@@ -2972,19 +2978,19 @@
       <c r="F21" s="72">
         <v>52</v>
       </c>
-      <c r="H21" s="110" t="s">
+      <c r="H21" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="112"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="109"/>
       <c r="O21" s="68"/>
     </row>
     <row r="22" spans="2:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B22" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="59" t="s">
@@ -2996,8 +3002,8 @@
       <c r="F22" s="73">
         <v>53</v>
       </c>
-      <c r="H22" s="101" t="s">
-        <v>314</v>
+      <c r="H22" s="112" t="s">
+        <v>313</v>
       </c>
       <c r="I22" s="82" t="s">
         <v>156</v>
@@ -3012,16 +3018,16 @@
         <v>159</v>
       </c>
       <c r="M22" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O22" s="68"/>
     </row>
     <row r="23" spans="2:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B23" s="79" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="H23" s="102"/>
+      <c r="H23" s="113"/>
       <c r="I23" s="82" t="s">
         <v>160</v>
       </c>
@@ -3035,17 +3041,17 @@
         <v>159</v>
       </c>
       <c r="M23" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O23" s="68"/>
     </row>
     <row r="24" spans="2:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B24" s="79" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C24" s="8"/>
       <c r="H24" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I24" s="39" t="s">
         <v>220</v>
@@ -3060,13 +3066,13 @@
         <v>223</v>
       </c>
       <c r="M24" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O24" s="68"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="79" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="7"/>
@@ -3075,19 +3081,19 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D26" s="43"/>
       <c r="E26" s="7"/>
       <c r="F26" s="45"/>
-      <c r="H26" s="110" t="s">
+      <c r="H26" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="112"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="109"/>
       <c r="O26" s="68"/>
     </row>
     <row r="27" spans="2:16" ht="30" x14ac:dyDescent="0.2">
@@ -3096,7 +3102,7 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="45"/>
-      <c r="H27" s="103" t="s">
+      <c r="H27" s="114" t="s">
         <v>250</v>
       </c>
       <c r="I27" s="82" t="s">
@@ -3112,7 +3118,7 @@
         <v>42</v>
       </c>
       <c r="M27" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O27" s="68"/>
     </row>
@@ -3123,7 +3129,7 @@
       <c r="D28" s="63"/>
       <c r="E28" s="62"/>
       <c r="F28" s="64"/>
-      <c r="H28" s="104"/>
+      <c r="H28" s="115"/>
       <c r="I28" s="82" t="s">
         <v>169</v>
       </c>
@@ -3137,18 +3143,18 @@
         <v>43</v>
       </c>
       <c r="M28" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O28" s="68"/>
     </row>
     <row r="29" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B29" s="79" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="D29" s="63"/>
       <c r="E29" s="62"/>
       <c r="F29" s="64"/>
-      <c r="H29" s="105"/>
+      <c r="H29" s="116"/>
       <c r="I29" s="83" t="s">
         <v>44</v>
       </c>
@@ -3156,13 +3162,13 @@
         <v>40</v>
       </c>
       <c r="K29" s="82" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L29" s="82" t="s">
         <v>274</v>
       </c>
       <c r="M29" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="2:16" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -3170,8 +3176,8 @@
       <c r="D30" s="43"/>
       <c r="E30" s="7"/>
       <c r="F30" s="45"/>
-      <c r="H30" s="106" t="s">
-        <v>314</v>
+      <c r="H30" s="117" t="s">
+        <v>313</v>
       </c>
       <c r="I30" s="83" t="s">
         <v>262</v>
@@ -3186,14 +3192,14 @@
         <v>273</v>
       </c>
       <c r="M30" s="82" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="2:16" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="D31" s="43"/>
       <c r="E31" s="7"/>
       <c r="F31" s="45"/>
-      <c r="H31" s="107"/>
+      <c r="H31" s="118"/>
       <c r="I31" s="83" t="s">
         <v>271</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>261</v>
       </c>
       <c r="M31" s="82" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="60" x14ac:dyDescent="0.2">
@@ -3230,12 +3236,12 @@
         <v>147</v>
       </c>
       <c r="M32" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="4:14" ht="30" x14ac:dyDescent="0.2">
       <c r="H33" s="96" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I33" s="83" t="s">
         <v>257</v>
@@ -3250,7 +3256,7 @@
         <v>272</v>
       </c>
       <c r="M33" s="82" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N33" s="23"/>
     </row>
@@ -3259,7 +3265,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="45"/>
       <c r="H34" s="74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I34" s="39" t="s">
         <v>231</v>
@@ -3274,15 +3280,15 @@
         <v>226</v>
       </c>
       <c r="M34" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="4:14" ht="30" x14ac:dyDescent="0.2">
       <c r="D35" s="43"/>
       <c r="E35" s="7"/>
       <c r="F35" s="45"/>
-      <c r="H35" s="108" t="s">
-        <v>289</v>
+      <c r="H35" s="119" t="s">
+        <v>288</v>
       </c>
       <c r="I35" s="83" t="s">
         <v>233</v>
@@ -3297,14 +3303,14 @@
         <v>239</v>
       </c>
       <c r="M35" s="82" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="4:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D36" s="47"/>
       <c r="E36" s="6"/>
       <c r="F36" s="48"/>
-      <c r="H36" s="109"/>
+      <c r="H36" s="120"/>
       <c r="I36" s="83" t="s">
         <v>234</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>240</v>
       </c>
       <c r="M36" s="82" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="4:14" ht="30" x14ac:dyDescent="0.2">
@@ -3326,7 +3332,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="48"/>
       <c r="H37" s="74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I37" s="39" t="s">
         <v>232</v>
@@ -3341,7 +3347,7 @@
         <v>229</v>
       </c>
       <c r="M37" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="4:14" ht="30" x14ac:dyDescent="0.2">
@@ -3361,7 +3367,7 @@
         <v>245</v>
       </c>
       <c r="M38" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="4:14" x14ac:dyDescent="0.2">
@@ -3436,23 +3442,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="H17:M17"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="H26:M26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3465,7 +3471,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3488,35 +3494,41 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67"/>
+      <c r="A2" s="67">
+        <v>42347</v>
+      </c>
       <c r="B2" s="93"/>
-      <c r="C2" s="99"/>
+      <c r="C2" s="99" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="3" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67">
+      <c r="A3" s="67"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="99" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="67">
         <v>42340</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="65" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="69"/>
+      <c r="C5" s="65" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7"/>
@@ -3556,30 +3568,35 @@
       <c r="B14" s="1"/>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:3" s="68" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16"/>
     </row>
-    <row r="17" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17"/>
     </row>
-    <row r="18" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4071,12 +4088,12 @@
     </row>
     <row r="103" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="89" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="89" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
@@ -4425,7 +4442,7 @@
     </row>
     <row r="10" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B10" s="1"/>
     </row>
@@ -4442,7 +4459,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B12" s="1">
         <v>312</v>
@@ -4453,7 +4470,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B13" s="1">
         <v>313</v>
